--- a/testSolve.xlsx
+++ b/testSolve.xlsx
@@ -411,7 +411,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="B1">
         <f>A1+5</f>
